--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B38984-ED07-8C4D-906C-13CF42E25249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D5A6BC-EAB6-FA4C-B5C9-280718B3B385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
+    <workbookView xWindow="2080" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="238">
   <si>
     <t>NULL</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>IFNL-A-Mammal-1-psi-1</t>
   </si>
   <si>
     <t>IFNL_Mammal_APsi-Hsa</t>
@@ -1169,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08018C-FB50-3C43-A66B-A47339118B69}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B59" sqref="A1:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,96 +1183,96 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1283,28 +1280,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1312,28 +1309,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1341,28 +1338,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1370,28 +1367,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1399,47 +1396,47 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
@@ -1448,72 +1445,72 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1521,16 +1518,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
@@ -1539,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1550,16 +1547,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
@@ -1568,41 +1565,41 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1610,16 +1607,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
@@ -1628,103 +1625,103 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1732,140 +1729,140 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1877,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1885,16 +1882,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
@@ -1906,69 +1903,69 @@
         <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1976,28 +1973,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2005,28 +2002,28 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2034,59 +2031,59 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2094,61 +2091,61 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2156,47 +2153,47 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>4</v>
@@ -2205,29 +2202,29 @@
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>4</v>
@@ -2236,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2247,121 +2244,121 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2369,47 +2366,47 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>4</v>
@@ -2418,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2429,28 +2426,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2458,59 +2455,59 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2518,28 +2515,28 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2547,28 +2544,28 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2576,142 +2573,142 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
@@ -2723,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2731,16 +2728,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>4</v>
@@ -2752,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2760,16 +2757,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>4</v>
@@ -2781,38 +2778,38 @@
         <v>2</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2820,28 +2817,28 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2849,47 +2846,47 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
@@ -2898,103 +2895,103 @@
         <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3002,59 +2999,59 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3062,108 +3059,108 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I65" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D5A6BC-EAB6-FA4C-B5C9-280718B3B385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D9F04-A9B2-B546-AAD6-D8019E6360FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
   </bookViews>
@@ -1166,14 +1166,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08018C-FB50-3C43-A66B-A47339118B69}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B59" sqref="A1:K66"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" customWidth="1"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D9F04-A9B2-B546-AAD6-D8019E6360FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B20A9C-E363-2C4B-A786-B9AA0D094AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
+    <workbookView xWindow="15780" yWindow="4500" windowWidth="34180" windowHeight="23040" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="240">
   <si>
     <t>NULL</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Vombatus ursinus</t>
   </si>
   <si>
-    <t>IFNL-A-Mammal</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -742,20 +739,29 @@
     <t>species</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>Placental1</t>
+  </si>
+  <si>
+    <t>IFNL-Mammal-A</t>
+  </si>
+  <si>
+    <t>gene_clade</t>
+  </si>
+  <si>
+    <t>gene_name</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -799,8 +805,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +839,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -838,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -849,6 +875,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,39 +1198,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08018C-FB50-3C43-A66B-A47339118B69}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>231</v>
@@ -1207,31 +1242,34 @@
       <c r="H1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>228</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -1240,182 +1278,200 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>207</v>
@@ -1423,691 +1479,760 @@
       <c r="I8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>237</v>
+        <v>204</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>200</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>196</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>237</v>
+        <v>194</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>237</v>
+        <v>192</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>237</v>
+        <v>188</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>237</v>
+        <v>181</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>237</v>
+        <v>177</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>237</v>
+        <v>173</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>237</v>
+        <v>169</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>237</v>
+        <v>162</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>237</v>
+        <v>160</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="L22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>151</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>150</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>146</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>237</v>
+        <v>145</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="2"/>
+      <c r="L29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>237</v>
+        <v>141</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>237</v>
+        <v>137</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>131</v>
@@ -2115,32 +2240,35 @@
       <c r="H31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>137</v>
+      <c r="I31" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>134</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>131</v>
@@ -2148,28 +2276,31 @@
       <c r="H32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>133</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>131</v>
@@ -2177,301 +2308,331 @@
       <c r="H33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="2"/>
+      <c r="L33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+      <c r="L37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>237</v>
+        <v>118</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>237</v>
+        <v>113</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>237</v>
+        <v>112</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="2"/>
+      <c r="L40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>237</v>
+        <v>108</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>237</v>
+        <v>104</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="2"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>237</v>
+        <v>100</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>96</v>
@@ -2479,30 +2640,33 @@
       <c r="H43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>237</v>
+        <v>98</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>96</v>
@@ -2510,86 +2674,95 @@
       <c r="H44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="2"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>237</v>
+        <v>93</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>237</v>
+        <v>91</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="2"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>237</v>
+        <v>87</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>85</v>
@@ -2597,30 +2770,33 @@
       <c r="H47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>237</v>
+        <v>81</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>79</v>
@@ -2628,26 +2804,29 @@
       <c r="H48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>237</v>
+        <v>74</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>73</v>
@@ -2661,30 +2840,33 @@
       <c r="H49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="2"/>
+      <c r="L49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>237</v>
+        <v>68</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>66</v>
@@ -2692,270 +2874,297 @@
       <c r="H50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>237</v>
+        <v>56</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="2"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>55</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I55" s="2"/>
+      <c r="I55" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="2"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>237</v>
+        <v>54</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="2"/>
+      <c r="I56" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="2"/>
+      <c r="L56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>237</v>
+        <v>50</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I57" s="2"/>
+      <c r="I57" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="2"/>
+      <c r="L57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>237</v>
+        <v>46</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="2"/>
+      <c r="L58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>237</v>
+        <v>43</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>41</v>
@@ -2963,30 +3172,33 @@
       <c r="H59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>237</v>
+        <v>37</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>35</v>
@@ -2994,59 +3206,65 @@
       <c r="H60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="2"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>237</v>
+        <v>32</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>24</v>
@@ -3054,28 +3272,31 @@
       <c r="H62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="2"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>237</v>
+        <v>26</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>24</v>
@@ -3083,24 +3304,27 @@
       <c r="H63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>237</v>
+        <v>20</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>19</v>
@@ -3114,75 +3338,84 @@
       <c r="H64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J64" s="2"/>
-      <c r="K64" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="2"/>
+      <c r="L64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>237</v>
+      <c r="B65" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>237</v>
+      <c r="B66" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-GLUE/tabular/refseq-lineage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B20A9C-E363-2C4B-A786-B9AA0D094AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1335FC-6976-F240-8858-178DA1744DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15780" yWindow="4500" windowWidth="34180" windowHeight="23040" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
   </bookViews>
@@ -745,9 +745,6 @@
     <t>Placental1</t>
   </si>
   <si>
-    <t>IFNL-Mammal-A</t>
-  </si>
-  <si>
     <t>gene_clade</t>
   </si>
   <si>
@@ -755,6 +752,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>IFNL-Mammalia-A</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E25" sqref="A1:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,10 +1222,10 @@
         <v>234</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>232</v>
@@ -1260,10 +1260,10 @@
         <v>224</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>235</v>
@@ -1296,10 +1296,10 @@
         <v>219</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>235</v>
@@ -1328,10 +1328,10 @@
         <v>218</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>235</v>
@@ -1360,10 +1360,10 @@
         <v>217</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>235</v>
@@ -1392,10 +1392,10 @@
         <v>213</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>235</v>
@@ -1424,10 +1424,10 @@
         <v>212</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>235</v>
@@ -1456,10 +1456,10 @@
         <v>209</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>235</v>
@@ -1490,10 +1490,10 @@
         <v>204</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>235</v>
@@ -1524,10 +1524,10 @@
         <v>200</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>235</v>
@@ -1558,10 +1558,10 @@
         <v>198</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>235</v>
@@ -1590,10 +1590,10 @@
         <v>194</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>235</v>
@@ -1622,10 +1622,10 @@
         <v>192</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>235</v>
@@ -1656,10 +1656,10 @@
         <v>188</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>235</v>
@@ -1688,10 +1688,10 @@
         <v>184</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>235</v>
@@ -1722,10 +1722,10 @@
         <v>181</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>235</v>
@@ -1756,10 +1756,10 @@
         <v>177</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>235</v>
@@ -1790,10 +1790,10 @@
         <v>173</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>235</v>
@@ -1822,10 +1822,10 @@
         <v>169</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>235</v>
@@ -1856,10 +1856,10 @@
         <v>165</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>235</v>
@@ -1890,10 +1890,10 @@
         <v>162</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>235</v>
@@ -1924,10 +1924,10 @@
         <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>235</v>
@@ -1958,10 +1958,10 @@
         <v>156</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>235</v>
@@ -1990,10 +1990,10 @@
         <v>155</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>235</v>
@@ -2024,10 +2024,10 @@
         <v>150</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>235</v>
@@ -2058,10 +2058,10 @@
         <v>151</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>235</v>
@@ -2090,10 +2090,10 @@
         <v>150</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>235</v>
@@ -2122,10 +2122,10 @@
         <v>146</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>235</v>
@@ -2154,10 +2154,10 @@
         <v>145</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>235</v>
@@ -2188,10 +2188,10 @@
         <v>141</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>235</v>
@@ -2220,10 +2220,10 @@
         <v>137</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>235</v>
@@ -2256,10 +2256,10 @@
         <v>134</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>235</v>
@@ -2288,10 +2288,10 @@
         <v>133</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>235</v>
@@ -2322,10 +2322,10 @@
         <v>128</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>235</v>
@@ -2356,10 +2356,10 @@
         <v>126</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>235</v>
@@ -2388,10 +2388,10 @@
         <v>123</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>235</v>
@@ -2422,10 +2422,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>235</v>
@@ -2456,10 +2456,10 @@
         <v>118</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>235</v>
@@ -2490,10 +2490,10 @@
         <v>113</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>235</v>
@@ -2522,10 +2522,10 @@
         <v>112</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>235</v>
@@ -2556,10 +2556,10 @@
         <v>108</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>235</v>
@@ -2588,10 +2588,10 @@
         <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>235</v>
@@ -2620,10 +2620,10 @@
         <v>100</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>235</v>
@@ -2654,10 +2654,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>235</v>
@@ -2686,10 +2686,10 @@
         <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>235</v>
@@ -2718,10 +2718,10 @@
         <v>91</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>235</v>
@@ -2750,10 +2750,10 @@
         <v>87</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>235</v>
@@ -2784,10 +2784,10 @@
         <v>81</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>235</v>
@@ -2820,10 +2820,10 @@
         <v>74</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>235</v>
@@ -2854,10 +2854,10 @@
         <v>68</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>235</v>
@@ -2888,10 +2888,10 @@
         <v>62</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>235</v>
@@ -2920,10 +2920,10 @@
         <v>61</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>235</v>
@@ -2952,10 +2952,10 @@
         <v>59</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>235</v>
@@ -2986,10 +2986,10 @@
         <v>56</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>235</v>
@@ -3018,10 +3018,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>235</v>
@@ -3050,10 +3050,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>235</v>
@@ -3084,10 +3084,10 @@
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>235</v>
@@ -3118,10 +3118,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>235</v>
@@ -3152,10 +3152,10 @@
         <v>43</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>235</v>
@@ -3186,10 +3186,10 @@
         <v>37</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>235</v>
@@ -3218,10 +3218,10 @@
         <v>32</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>235</v>
@@ -3252,10 +3252,10 @@
         <v>26</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>235</v>
@@ -3284,10 +3284,10 @@
         <v>26</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>235</v>
@@ -3318,10 +3318,10 @@
         <v>20</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>235</v>
@@ -3352,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -3388,10 +3388,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>235</v>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1335FC-6976-F240-8858-178DA1744DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D8963-FF53-FA4B-A249-E88A27D7C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15780" yWindow="4500" windowWidth="34180" windowHeight="23040" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
   </bookViews>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="240">
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Homo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="236">
   <si>
     <t>Hominidae</t>
   </si>
@@ -50,12 +44,6 @@
   </si>
   <si>
     <t>Euarchontoglires</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>IFNL_Mammal_APsi-Hsa</t>
   </si>
   <si>
     <t>xMa</t>
@@ -1198,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08018C-FB50-3C43-A66B-A47339118B69}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:L66"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,105 +1207,105 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1325,31 +1313,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1357,31 +1345,31 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1389,31 +1377,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1421,31 +1409,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1453,133 +1441,133 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1587,31 +1575,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1619,65 +1607,65 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1685,133 +1673,133 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1819,167 +1807,167 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1987,99 +1975,99 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2087,31 +2075,31 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2119,31 +2107,31 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2151,65 +2139,65 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2217,67 +2205,67 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2285,99 +2273,99 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2385,133 +2373,133 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2519,65 +2507,65 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2585,31 +2573,31 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2617,65 +2605,65 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2683,31 +2671,31 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2715,31 +2703,31 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -2747,169 +2735,169 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2917,31 +2905,31 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2949,65 +2937,65 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -3015,31 +3003,31 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -3047,167 +3035,167 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -3215,65 +3203,65 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -3281,141 +3269,107 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
+++ b/tabular/refseq-lineage/ifnl-curated-side-data-mammalia-a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/host/IFNL-Evolution/tabular/refseq-lineage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D8963-FF53-FA4B-A249-E88A27D7C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A276E863-6429-1246-8E7F-EB60B21D8E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15780" yWindow="4500" windowWidth="34180" windowHeight="23040" xr2:uid="{66BE0955-F9FA-CD49-98F4-48E84202C8B2}"/>
   </bookViews>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,8 +1244,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>220</v>
+      <c r="A2" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>235</v>
@@ -1253,35 +1253,33 @@
       <c r="C2" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>235</v>
@@ -1289,31 +1287,31 @@
       <c r="C3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>210</v>
+      <c r="D3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>214</v>
+      <c r="A4" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>235</v>
@@ -1325,27 +1323,31 @@
         <v>231</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>213</v>
+      <c r="A5" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>235</v>
@@ -1357,19 +1359,19 @@
         <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1377,7 +1379,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>235</v>
@@ -1389,27 +1391,29 @@
         <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>235</v>
@@ -1417,31 +1421,33 @@
       <c r="C7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>206</v>
+      <c r="D7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>235</v>
@@ -1453,29 +1459,29 @@
         <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>235</v>
@@ -1487,29 +1493,29 @@
         <v>231</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>235</v>
@@ -1535,15 +1541,13 @@
       <c r="I10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>195</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>235</v>
@@ -1555,19 +1559,19 @@
         <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1575,7 +1579,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>235</v>
@@ -1587,7 +1591,7 @@
         <v>231</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
@@ -1603,11 +1607,13 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>235</v>
@@ -1619,29 +1625,27 @@
         <v>231</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>235</v>
@@ -1653,27 +1657,29 @@
         <v>231</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>235</v>
@@ -1681,33 +1687,31 @@
       <c r="C15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>178</v>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>235</v>
@@ -1715,33 +1719,33 @@
       <c r="C16" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>174</v>
+      <c r="D16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>235</v>
@@ -1749,33 +1753,33 @@
       <c r="C17" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>235</v>
@@ -1783,31 +1787,31 @@
       <c r="C18" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>166</v>
+      <c r="D18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>235</v>
@@ -1815,33 +1819,31 @@
       <c r="C19" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>162</v>
+      <c r="D19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>235</v>
@@ -1853,29 +1855,27 @@
         <v>231</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>158</v>
+      <c r="A21" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>235</v>
@@ -1887,29 +1887,29 @@
         <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>235</v>
@@ -1921,29 +1921,27 @@
         <v>231</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>235</v>
@@ -1955,7 +1953,7 @@
         <v>231</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>2</v>
@@ -1964,10 +1962,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1975,7 +1973,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>235</v>
@@ -1987,29 +1985,27 @@
         <v>231</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>146</v>
+      <c r="A25" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>235</v>
@@ -2021,7 +2017,7 @@
         <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>2</v>
@@ -2030,20 +2026,20 @@
         <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>235</v>
@@ -2055,7 +2051,7 @@
         <v>231</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>2</v>
@@ -2064,18 +2060,18 @@
         <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>146</v>
+      <c r="A27" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>235</v>
@@ -2087,27 +2083,29 @@
         <v>231</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>235</v>
@@ -2119,19 +2117,19 @@
         <v>231</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -2139,7 +2137,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>235</v>
@@ -2151,29 +2149,27 @@
         <v>231</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>235</v>
@@ -2185,27 +2181,29 @@
         <v>231</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>133</v>
+      <c r="A31" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>235</v>
@@ -2217,31 +2215,29 @@
         <v>231</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>130</v>
+      <c r="A32" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>235</v>
@@ -2253,27 +2249,27 @@
         <v>231</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>129</v>
+      <c r="A33" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>235</v>
@@ -2285,29 +2281,29 @@
         <v>231</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>235</v>
@@ -2319,29 +2315,31 @@
         <v>231</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>235</v>
@@ -2353,19 +2351,19 @@
         <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2373,7 +2371,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>235</v>
@@ -2385,29 +2383,27 @@
         <v>231</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>235</v>
@@ -2419,29 +2415,27 @@
         <v>231</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>114</v>
+      <c r="A38" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>235</v>
@@ -2453,29 +2447,27 @@
         <v>231</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>235</v>
@@ -2483,31 +2475,31 @@
       <c r="C39" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>105</v>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>235</v>
@@ -2515,33 +2507,33 @@
       <c r="C40" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>235</v>
@@ -2549,31 +2541,33 @@
       <c r="C41" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>101</v>
+      <c r="D41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>235</v>
@@ -2581,31 +2575,33 @@
       <c r="C42" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>97</v>
+      <c r="D42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>96</v>
+      <c r="A43" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>235</v>
@@ -2617,29 +2613,29 @@
         <v>231</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>235</v>
@@ -2651,27 +2647,29 @@
         <v>231</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>235</v>
@@ -2683,27 +2681,29 @@
         <v>231</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>235</v>
@@ -2715,27 +2715,27 @@
         <v>231</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>83</v>
+      <c r="A47" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>235</v>
@@ -2747,29 +2747,29 @@
         <v>231</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>77</v>
+      <c r="A48" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>235</v>
@@ -2781,31 +2781,29 @@
         <v>231</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L48" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>235</v>
@@ -2817,19 +2815,19 @@
         <v>231</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -2839,7 +2837,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>235</v>
@@ -2851,29 +2849,29 @@
         <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>235</v>
@@ -2885,19 +2883,19 @@
         <v>231</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2905,7 +2903,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>235</v>
@@ -2917,27 +2915,29 @@
         <v>231</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>235</v>
@@ -2949,29 +2949,27 @@
         <v>231</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>235</v>
@@ -2983,7 +2981,7 @@
         <v>231</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>14</v>
@@ -2992,18 +2990,18 @@
         <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>51</v>
+      <c r="A55" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>235</v>
@@ -3015,27 +3013,29 @@
         <v>231</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>235</v>
@@ -3063,13 +3063,11 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>235</v>
@@ -3081,29 +3079,27 @@
         <v>231</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>235</v>
@@ -3115,19 +3111,19 @@
         <v>231</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -3136,8 +3132,8 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>39</v>
+      <c r="A59" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>235</v>
@@ -3149,7 +3145,7 @@
         <v>231</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>14</v>
@@ -3161,17 +3157,17 @@
         <v>36</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>33</v>
+      <c r="A60" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>235</v>
@@ -3183,27 +3179,29 @@
         <v>231</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>28</v>
+      <c r="A61" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>235</v>
@@ -3215,29 +3213,27 @@
         <v>231</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>22</v>
+      <c r="A62" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>235</v>
@@ -3249,27 +3245,29 @@
         <v>231</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>22</v>
+      <c r="A63" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>235</v>
@@ -3281,29 +3279,29 @@
         <v>231</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>16</v>
+      <c r="A64" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>235</v>
@@ -3315,25 +3313,27 @@
         <v>231</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
@@ -3372,6 +3372,9 @@
       <c r="L65" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L65">
+    <sortCondition ref="F2:F65"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
